--- a/Metricas-Codigo/LEI-123285-Classes.xlsx
+++ b/Metricas-Codigo/LEI-123285-Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Codigo\EngenhariaSoftware\app3\app\Metricas-Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA65BDA-AEC1-4C4E-A163-FC8134AD4F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BED515-76AC-4615-8939-9ECA3D422A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBB36BCD-266D-49D9-83D5-5D86F73DE882}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Class Name</t>
   </si>
@@ -146,13 +146,46 @@
   </si>
   <si>
     <t>com.example.examplefeature.ui.TaskListView</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Classe de entrada simples, sem lógica de negócio. Métricas irrelevantes para análise de qualidade do requisito.</t>
+  </si>
+  <si>
+    <t>Serviço utilitário para geração de cores. Boa coesão e baixa complexidade. Usado corretamente no construtor de Task.</t>
+  </si>
+  <si>
+    <t>Classe externa ao requisito. Não analisada</t>
+  </si>
+  <si>
+    <t>Layout base da aplicação. Alto volume, mas coesão aceitável. Fora do escopo do requisito</t>
+  </si>
+  <si>
+    <t>Componente reutilizável de UI. Boa abstração. Usado corretamente na TaskListView.</t>
+  </si>
+  <si>
+    <t>Classe central do requisito. Implementei prioridade dinâmica via getPriority() com cálculo baseado em dueDate. Boa legibilidade (CHER=0.2673), mas coesão baixa (TCC=0.1389, LCOM=5) devido à mistura de getters/setters com lógica de negócio. Sugestão: extrair getPriority() para PriorityCalculator para melhorar SRP e coesão</t>
+  </si>
+  <si>
+    <t>Enum bem estruturado com displayName e themeVariant. Usado corretamente na UI com badges coloridos. Boa prática.</t>
+  </si>
+  <si>
+    <t>Interface JPA gerada automaticamente. Sem implementação manual.</t>
+  </si>
+  <si>
+    <t>Excelente implementação! Adicionei listSortedByPriority() com Comparator.comparing(Task::getPriority). Alta coesão (TCC=1), baixo acoplamento (CBO=3), boa manutenibilidade. Uso limpo de streams e method references.</t>
+  </si>
+  <si>
+    <t>View bem estruturada com alta coesão (TCC=1). Adicionei botão 'Sort by Priority', coluna de prioridade com badges coloridos e aplicação de cor de fundo por linha. Alto volume (CHVC=1313) devido à configuração da grid. Sugestão: extrair criação de colunas para métodos privados para melhorar legibilidade.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +316,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -629,8 +670,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,15 +1048,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1E333-D357-48B1-89D3-EBA3414C258D}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection sqref="A1:AD11"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="31" max="31" width="104.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1105,8 +1150,11 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1197,8 +1245,11 @@
       <c r="AD2">
         <v>1</v>
       </c>
+      <c r="AE2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1289,8 +1340,11 @@
       <c r="AD3">
         <v>1</v>
       </c>
+      <c r="AE3" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1381,8 +1435,11 @@
       <c r="AD4">
         <v>1</v>
       </c>
+      <c r="AE4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1473,8 +1530,11 @@
       <c r="AD5">
         <v>5</v>
       </c>
+      <c r="AE5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1565,8 +1625,11 @@
       <c r="AD6">
         <v>3</v>
       </c>
+      <c r="AE6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1657,8 +1720,11 @@
       <c r="AD7">
         <v>21</v>
       </c>
+      <c r="AE7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1749,8 +1815,11 @@
       <c r="AD8" t="s">
         <v>34</v>
       </c>
+      <c r="AE8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1841,8 +1910,11 @@
       <c r="AD9" t="s">
         <v>34</v>
       </c>
+      <c r="AE9" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1933,8 +2005,11 @@
       <c r="AD10">
         <v>5</v>
       </c>
+      <c r="AE10" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2025,6 +2100,12 @@
       <c r="AD11">
         <v>6</v>
       </c>
+      <c r="AE11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AE19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
